--- a/Music and Memory/12 songs/lyrics/lyricErrorAnalysis.xlsx
+++ b/Music and Memory/12 songs/lyrics/lyricErrorAnalysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="2260" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="4100" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Americans" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
   <si>
     <t>line number</t>
   </si>
@@ -46,12 +49,54 @@
   <si>
     <t xml:space="preserve">line </t>
   </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK </t>
+  </si>
+  <si>
+    <t>No errors found in selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Data </t>
+  </si>
+  <si>
+    <t>Averge Error</t>
+  </si>
+  <si>
+    <t>Average Error</t>
+  </si>
+  <si>
+    <t>Average error</t>
+  </si>
+  <si>
+    <t>average error</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,8 +104,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +146,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -83,21 +171,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,15 +628,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +649,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,8 +678,25 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,8 +706,27 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J66" si="0">AVERAGE(B3:H3)</f>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,8 +736,24 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -485,36 +763,62 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -524,13 +828,32 @@
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -540,36 +863,65 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -579,8 +931,27 @@
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -590,8 +961,27 @@
       <c r="C20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -601,26 +991,71 @@
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -630,101 +1065,175 @@
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="J34" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="J35" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -734,114 +1243,197 @@
       <c r="C41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="G48" s="8"/>
+      <c r="J48" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="J49" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="G50" s="8"/>
+      <c r="J50" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="G51" s="8"/>
+      <c r="J51" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="G56" s="8"/>
+      <c r="J56" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -851,85 +1443,165 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="J59" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="J64" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="J65" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66" s="8"/>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="J67" s="9">
+        <f t="shared" ref="J67:J77" si="1">AVERAGE(B67:H67)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="J72" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
@@ -939,8 +1611,25 @@
       <c r="C73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>73</v>
       </c>
@@ -950,8 +1639,25 @@
       <c r="C74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>74</v>
       </c>
@@ -961,22 +1667,69 @@
       <c r="C75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" s="8"/>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="G77" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -987,182 +1740,348 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J28" si="0">AVERAGE(B3:H3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>33</v>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1177,152 +2096,586 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J28" si="0">AVERAGE(B3:H3)</f>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1337,163 +2690,322 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="12" max="12" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1507,15 +3019,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1525,32 +3040,77 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J26" si="0">AVERAGE(B3:H3)</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1560,16 +3120,33 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1579,55 +3156,117 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1637,16 +3276,24 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1656,55 +3303,104 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1714,12 +3410,26 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1735,15 +3445,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1753,8 +3466,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1764,82 +3495,204 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9">
+        <f>AVERAGE(B2:H2)</f>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I13" si="0">AVERAGE(B3:H3)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1850,192 +3703,696 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J36" si="0">AVERAGE(B3:H3)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2050,77 +4407,258 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J13" si="0">AVERAGE(B3:H3)</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2135,193 +4673,298 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="F24" s="4"/>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2335,160 +4978,371 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J30" si="0">AVERAGE(B3:H3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2505,120 +5359,549 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
+        <f>AVERAGE(B2:H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J27" si="0">AVERAGE(B3:H3)</f>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2630,160 +5913,298 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J29" si="0">AVERAGE(B3:H3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
